--- a/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-across-sessions/good-manifest-1.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-across-sessions/good-manifest-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="280" windowWidth="25600" windowHeight="20460"/>
@@ -246,12 +246,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -262,6 +256,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -799,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -850,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -859,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -870,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -899,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -910,7 +910,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -930,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -950,7 +950,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -970,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -979,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -990,7 +990,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1010,7 +1010,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1030,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1050,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>52</v>
@@ -1079,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1090,7 +1090,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1110,7 +1110,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>58</v>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1130,7 +1130,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>61</v>
@@ -1139,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1150,7 +1150,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1170,7 +1170,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>67</v>
@@ -1179,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1190,7 +1190,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>70</v>
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1210,7 +1210,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-across-sessions/good-manifest-1.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-across-sessions/good-manifest-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="280" windowWidth="25600" windowHeight="20460"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -262,13 +262,19 @@
   </si>
   <si>
     <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -280,8 +286,15 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -313,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,6 +347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -742,7 +764,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -761,8 +783,11 @@
       <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,8 +806,11 @@
       <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -801,8 +829,11 @@
       <c r="F3" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,8 +852,11 @@
       <c r="F4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -841,8 +875,11 @@
       <c r="F5" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -861,8 +898,11 @@
       <c r="F6" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -881,8 +921,11 @@
       <c r="F7" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -901,8 +944,11 @@
       <c r="F8" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -921,8 +967,11 @@
       <c r="F9" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -941,8 +990,11 @@
       <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -961,8 +1013,11 @@
       <c r="F11" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -981,8 +1036,11 @@
       <c r="F12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1001,8 +1059,11 @@
       <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1021,8 +1082,11 @@
       <c r="F14" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1041,8 +1105,11 @@
       <c r="F15" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -1061,8 +1128,11 @@
       <c r="F16" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1081,8 +1151,11 @@
       <c r="F17" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1101,8 +1174,11 @@
       <c r="F18" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1121,8 +1197,11 @@
       <c r="F19" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1141,8 +1220,11 @@
       <c r="F20" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1161,8 +1243,11 @@
       <c r="F21" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1181,8 +1266,11 @@
       <c r="F22" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -1201,8 +1289,11 @@
       <c r="F23" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1220,6 +1311,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>76</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
